--- a/data/registrations.xlsx
+++ b/data/registrations.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cybersec\ctf_backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF1E89C-6C11-451F-B51D-5AAEDA79CF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="422">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1274,23 +1283,27 @@
   </si>
   <si>
     <t>25N207</t>
+  </si>
+  <si>
+    <t>23N299</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1301,11 +1314,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -1319,6 +1338,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1333,6 +1353,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1347,6 +1368,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1361,6 +1383,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1375,6 +1398,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1389,6 +1413,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1403,6 +1428,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1417,6 +1443,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1431,6 +1458,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1445,6 +1473,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1459,6 +1488,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1473,139 +1503,120 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N67" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:N68" headerRowCount="0">
   <tableColumns count="14">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
-    <tableColumn name="Column11" id="11"/>
-    <tableColumn name="Column12" id="12"/>
-    <tableColumn name="Column13" id="13"/>
-    <tableColumn name="Column14" id="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -1615,7 +1626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1805,34 +1816,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="23.13"/>
-    <col customWidth="1" min="3" max="5" width="18.88"/>
-    <col customWidth="1" min="6" max="6" width="23.13"/>
-    <col customWidth="1" min="7" max="9" width="18.88"/>
-    <col customWidth="1" min="10" max="10" width="23.13"/>
-    <col customWidth="1" min="11" max="13" width="18.88"/>
-    <col customWidth="1" min="14" max="14" width="34.13"/>
-    <col customWidth="1" min="15" max="20" width="18.88"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1"/>
+    <col min="11" max="13" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="34.109375" customWidth="1"/>
+    <col min="15" max="20" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1876,9 +1890,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45935.1010400463</v>
+        <v>45935.101040046298</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -1920,9 +1934,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>45935.33770895834</v>
+        <v>45935.337708958337</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
@@ -1964,44 +1978,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10">
-        <v>45935.37418284723</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45935.374182847227</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="N4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>45935.45338519676</v>
+        <v>45935.453385196757</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>30</v>
@@ -2043,53 +2057,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10">
+    <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>45935.463245011575</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="11" t="s">
+      <c r="L6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="N6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>45935.46394435185</v>
+        <v>45935.463944351854</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -2131,53 +2145,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="10">
+    <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>45935.472197442126</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>45935.55139328704</v>
+        <v>45935.551393287038</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>59</v>
@@ -2219,41 +2233,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="10">
-        <v>45935.56967069444</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45935.569670694444</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="N10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>45935.59783841435</v>
+        <v>45935.597838414353</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>71</v>
@@ -2283,51 +2297,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="10">
+    <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>45935.847827488426</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="11" t="s">
+      <c r="L12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45935.872131550925</v>
       </c>
@@ -2359,39 +2373,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="10">
-        <v>45935.89131445602</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45935.891314456021</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="H14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="N14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45936.639233009264</v>
       </c>
@@ -2435,51 +2449,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="10">
-        <v>45936.8499896412</v>
-      </c>
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45936.849989641203</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="H16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="11" t="s">
+      <c r="L16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="N16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45936.85543880787</v>
       </c>
@@ -2523,51 +2537,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="10">
-        <v>45937.51689722222</v>
-      </c>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45937.516897222224</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="H18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="11" t="s">
+      <c r="L18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="N18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45937.567608854166</v>
       </c>
@@ -2611,51 +2625,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="10">
+    <row r="20" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>45937.650300023146</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="H20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="11" t="s">
+      <c r="L20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N20" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="N20" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45937.691265312504</v>
       </c>
@@ -2699,39 +2713,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="10">
-        <v>45937.81656015046</v>
-      </c>
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45937.816560150459</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="H22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="N22" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="N22" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45937.850754074076</v>
       </c>
@@ -2775,53 +2789,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="10">
-        <v>45938.66569822917</v>
-      </c>
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45938.665698229168</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="11" t="s">
+      <c r="L24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>45938.66777732639</v>
+        <v>45938.667777326387</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>163</v>
@@ -2863,51 +2877,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="10">
+    <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>45939.43132570602</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N26" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="N26" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45939.442197083335</v>
       </c>
@@ -2951,39 +2965,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="10">
-        <v>45939.48754445602</v>
-      </c>
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45939.487544456017</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N28" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="N28" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45939.51480769676</v>
       </c>
@@ -3027,41 +3041,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="10">
-        <v>45939.51972409722</v>
-      </c>
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45939.519724097219</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="11" t="s">
+      <c r="H30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="N30" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>45939.52101467593</v>
+        <v>45939.521014675927</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>201</v>
@@ -3103,59 +3117,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="10">
+    <row r="32" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>45939.525114143515</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="11" t="s">
+      <c r="H32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="11" t="s">
+      <c r="L32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="N32" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="N32" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>45939.52643925926</v>
+        <v>45939.526439259258</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="13">
-        <v>2.5E252</v>
+      <c r="C33" s="10">
+        <v>2.4999999999999998E+252</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>20</v>
@@ -3166,8 +3180,8 @@
       <c r="F33" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G33" s="13">
-        <v>2.5E213</v>
+      <c r="G33" s="10">
+        <v>2.4999999999999999E+213</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>20</v>
@@ -3178,8 +3192,8 @@
       <c r="J33" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="K33" s="13">
-        <v>2.5E202</v>
+      <c r="K33" s="10">
+        <v>2.5E+202</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>20</v>
@@ -3191,53 +3205,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="10">
-        <v>45939.55502086805</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45939.555020868051</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="N34" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="N34" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>45939.55697361111</v>
+        <v>45939.556973611107</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>223</v>
@@ -3279,51 +3293,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="10">
-        <v>45939.56779077546</v>
-      </c>
-      <c r="B36" s="11" t="s">
+    <row r="36" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45939.567790775458</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="11" t="s">
+      <c r="H36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="11" t="s">
+      <c r="L36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="N36" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="N36" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45939.579370844905</v>
       </c>
@@ -3367,53 +3381,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="10">
-        <v>45939.57952671296</v>
-      </c>
-      <c r="B38" s="11" t="s">
+    <row r="38" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45939.579526712958</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="11" t="s">
+      <c r="H38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="L38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="11" t="s">
+      <c r="L38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="N38" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="N38" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>45939.57987019676</v>
+        <v>45939.579870196758</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>251</v>
@@ -3455,53 +3469,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="10">
-        <v>45939.64219804398</v>
-      </c>
-      <c r="B40" s="11" t="s">
+    <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45939.642198043977</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="11" t="s">
+      <c r="H40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M40" s="11" t="s">
+      <c r="L40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="N40" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="N40" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>45939.6422271412</v>
+        <v>45939.642227141201</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>264</v>
@@ -3543,51 +3557,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="10">
+    <row r="42" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>45939.644132534726</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="11" t="s">
+      <c r="H42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="L42" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="11" t="s">
+      <c r="L42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="N42" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="N42" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>45939.754110821756</v>
       </c>
@@ -3619,39 +3633,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="10">
-        <v>45939.97570402778</v>
-      </c>
-      <c r="B44" s="11" t="s">
+    <row r="44" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45939.975704027776</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="D44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="11" t="s">
+      <c r="H44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N44" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="N44" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>45940.474738969904</v>
       </c>
@@ -3695,39 +3709,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="10">
-        <v>45940.66201251157</v>
-      </c>
-      <c r="B46" s="11" t="s">
+    <row r="46" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45940.662012511573</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="N46" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="N46" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>45940.726071400466</v>
       </c>
@@ -3768,51 +3782,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="10">
-        <v>45940.83813471065</v>
-      </c>
-      <c r="B48" s="11" t="s">
+    <row r="48" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45940.838134710648</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="11" t="s">
+      <c r="H48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="11" t="s">
+      <c r="L48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="N48" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45941.424865891204</v>
       </c>
@@ -3856,53 +3870,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="10">
+    <row r="50" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>45942.592584976854</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="11" t="s">
+      <c r="H50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M50" s="11" t="s">
+      <c r="L50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="N50" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="N50" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>45942.83603266204</v>
+        <v>45942.836032662039</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>320</v>
@@ -3932,39 +3946,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="10">
+    <row r="52" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>45942.857940648144</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="11" t="s">
+      <c r="H52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="N52" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>45942.905354814815</v>
       </c>
@@ -3996,41 +4010,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="10">
-        <v>45943.54091241898</v>
-      </c>
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>45943.540912418983</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="11" t="s">
+      <c r="D54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="11" t="s">
+      <c r="H54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="N54" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="N54" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>45943.55191200232</v>
+        <v>45943.551912002316</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>337</v>
@@ -4072,53 +4086,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="10">
-        <v>45943.56813533565</v>
-      </c>
-      <c r="B56" s="11" t="s">
+    <row r="56" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>45943.568135335649</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="11" t="s">
+      <c r="D56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="11" t="s">
+      <c r="H56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="11" t="s">
+      <c r="L56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N56" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="N56" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>45943.57094082176</v>
+        <v>45943.570940821759</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>350</v>
@@ -4160,41 +4174,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="10">
-        <v>45943.57587716435</v>
-      </c>
-      <c r="B58" s="11" t="s">
+    <row r="58" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45943.575877164352</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="11" t="s">
+      <c r="D58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="11" t="s">
+      <c r="H58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="N58" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="N58" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>45943.63533225695</v>
+        <v>45943.635332256948</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>361</v>
@@ -4236,53 +4250,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="10">
+    <row r="60" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>45943.65667596065</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="11" t="s">
+      <c r="D60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="11" t="s">
+      <c r="H60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="L60" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M60" s="11" t="s">
+      <c r="L60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="N60" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="N60" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>45943.66023069444</v>
+        <v>45943.660230694441</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>375</v>
@@ -4324,53 +4338,53 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="10">
-        <v>45943.66106041666</v>
-      </c>
-      <c r="B62" s="11" t="s">
+    <row r="62" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>45943.661060416664</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="11" t="s">
+      <c r="D62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="11" t="s">
+      <c r="H62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="L62" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M62" s="11" t="s">
+      <c r="L62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N62" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63">
+      <c r="N62" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>45943.66201153935</v>
+        <v>45943.662011539353</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>387</v>
@@ -4412,51 +4426,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="10">
+    <row r="64" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>45943.66242922454</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="11" t="s">
+      <c r="D64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="11" t="s">
+      <c r="H64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="L64" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" s="11" t="s">
+      <c r="L64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N64" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="N64" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>45943.663630752315</v>
       </c>
@@ -4500,98 +4514,107 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="10">
-        <v>45943.66567767361</v>
-      </c>
-      <c r="B66" s="11" t="s">
+    <row r="66" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>45943.665677673613</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="11" t="s">
+      <c r="D66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="11" t="s">
+      <c r="H66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="L66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="11" t="s">
+      <c r="L66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="N66" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="14">
-        <v>45943.76918582176</v>
-      </c>
-      <c r="B67" s="15" t="s">
+      <c r="N66" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>45943.769185821759</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="H67" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="15" t="s">
+      <c r="H67" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="J67" s="15" t="s">
+      <c r="J67" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="K67" s="15" t="s">
+      <c r="K67" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="L67" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67" s="15" t="s">
+      <c r="L67" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="N67" s="16" t="s">
-        <v>25</v>
+      <c r="N67" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>421</v>
+      </c>
+      <c r="N68" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/registrations.xlsx
+++ b/data/registrations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cybersec\ctf_backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF1E89C-6C11-451F-B51D-5AAEDA79CF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A1C86-EBFA-41A4-8CCC-CD73250AF7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1829,8 +1829,8 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/registrations.xlsx
+++ b/data/registrations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cybersec\ctf_backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cybersec\ctf_backend-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A1C86-EBFA-41A4-8CCC-CD73250AF7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB7179F-7ADB-4CF3-B5E8-78B854B04711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1829,8 +1829,8 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
